--- a/HODANOVA/popovsa22_statisitcs.xlsx
+++ b/HODANOVA/popovsa22_statisitcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\SchoolStuff\HODANOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BCD074-9A50-4F33-9781-8AB3CA6170DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D6DB8-A2FF-43AF-A5AA-E26E6C009ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCCD6CBD-00C7-4E81-9EF9-9084940878AF}"/>
   </bookViews>
@@ -1686,7 +1686,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1852,7 @@
         <v>8.2134036793524254E-2</v>
       </c>
       <c r="H8" s="16">
-        <f>VARP(C3:C22)</f>
+        <f>VARPA(C3:C22)</f>
         <v>6.7459999999999951E-3</v>
       </c>
       <c r="I8" s="16">
